--- a/Porovnani_18_04.xlsx
+++ b/Porovnani_18_04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiki\PycharmProjects\Colony_Count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC152000-6AA7-4722-8C0C-F81EFDCC9357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC396826-8A2E-48B3-84C3-F0A27E778628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="6" xr2:uid="{48282F01-B452-4B76-B512-DF405AF65261}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="251">
   <si>
     <t>model</t>
   </si>
@@ -741,6 +741,57 @@
   </si>
   <si>
     <t>no FC</t>
+  </si>
+  <si>
+    <t>0,0,1</t>
+  </si>
+  <si>
+    <t>0,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>avg % error</t>
+  </si>
+  <si>
+    <t>90.32184236997774</t>
+  </si>
+  <si>
+    <t>64.13058099218786</t>
+  </si>
+  <si>
+    <t>90.82116015973759</t>
+  </si>
+  <si>
+    <t>62.24938170226276</t>
+  </si>
+  <si>
+    <t>151.46336174798867</t>
+  </si>
+  <si>
+    <t>202.2655959865517</t>
+  </si>
+  <si>
+    <t>194.3026400545786</t>
+  </si>
+  <si>
+    <t>165.82490326348514</t>
+  </si>
+  <si>
+    <t>182.33980927905102</t>
+  </si>
+  <si>
+    <t>112.25514776110376</t>
+  </si>
+  <si>
+    <t>172.90459628290833</t>
+  </si>
+  <si>
+    <t>267.32764299463963</t>
+  </si>
+  <si>
+    <t>68.40943687966862</t>
   </si>
 </sst>
 </file>
@@ -4051,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ECBBBA-085B-42F7-910D-6C0032B71C45}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12410,7 +12461,7 @@
   <dimension ref="A2:N45"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14284,10 +14335,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4847E0A1-974A-4F3D-B06B-051DC59E5772}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14301,7 +14352,7 @@
     <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14344,8 +14395,11 @@
       <c r="N1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -14388,8 +14442,11 @@
       <c r="N2">
         <v>0.59619</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -14433,7 +14490,7 @@
         <v>0.60183869999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>221</v>
       </c>
@@ -14477,7 +14534,7 @@
         <v>0.60261564999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -14521,7 +14578,7 @@
         <v>0.60901530000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -14564,8 +14621,11 @@
       <c r="N6">
         <v>0.62757503999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>217</v>
       </c>
@@ -14609,7 +14669,7 @@
         <v>0.62882760000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -14652,8 +14712,11 @@
       <c r="N8">
         <v>0.66936236999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>193</v>
       </c>
@@ -14696,8 +14759,11 @@
       <c r="N9">
         <v>0.76513949999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>181</v>
       </c>
@@ -14741,7 +14807,7 @@
         <v>0.81664720000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>219</v>
       </c>
@@ -14785,7 +14851,7 @@
         <v>0.83198340000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>188</v>
       </c>
@@ -14829,7 +14895,7 @@
         <v>0.86319995000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -14872,8 +14938,11 @@
       <c r="N13">
         <v>0.89960669999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -14916,8 +14985,11 @@
       <c r="N14">
         <v>0.93053330000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -14960,8 +15032,11 @@
       <c r="N15">
         <v>0.9331545</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -15004,8 +15079,11 @@
       <c r="N16">
         <v>0.95694330000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>186</v>
       </c>
@@ -15048,8 +15126,11 @@
       <c r="N17">
         <v>0.97282769999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>197</v>
       </c>
@@ -15096,7 +15177,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -15139,8 +15220,11 @@
       <c r="N19">
         <v>0.99294954999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>182</v>
       </c>
@@ -15187,7 +15271,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -15230,8 +15314,11 @@
       <c r="N21">
         <v>1.0337512</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -15274,8 +15361,11 @@
       <c r="N22">
         <v>1.0925026</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>208</v>
       </c>
@@ -15318,8 +15408,11 @@
       <c r="N23" s="9">
         <v>1.0948874</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -15362,8 +15455,11 @@
       <c r="N24">
         <v>1.1853804999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J26" t="s">
         <v>51</v>
       </c>
@@ -15372,7 +15468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>229</v>
       </c>
@@ -15387,7 +15483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28">
         <f>AVERAGE(N2:N9,N19,N23)</f>
         <v>0.718840111</v>
@@ -15397,7 +15493,7 @@
         <v>0.95604821363636361</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -15438,7 +15534,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>945057</v>
       </c>
@@ -15478,8 +15574,15 @@
       <c r="M34">
         <v>0.59619</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P34" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q34">
+        <f>AVERAGE(M35,M37,M38,M43,M44,M45:M47,M49)</f>
+        <v>0.80774828777777774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>354309</v>
       </c>
@@ -15520,7 +15623,7 @@
         <v>0.60183869999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>77893</v>
       </c>
@@ -15560,8 +15663,15 @@
       <c r="M36">
         <v>0.60261564999999995</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P36" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q36">
+        <f>AVERAGE(M34,M36,M39,M41:M42,M48,M51:M52)</f>
+        <v>0.81157713124999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>631621</v>
       </c>
@@ -15602,7 +15712,7 @@
         <v>0.60901530000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>497613</v>
       </c>
@@ -15642,8 +15752,15 @@
       <c r="M38">
         <v>0.62757503999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P38" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q38">
+        <f>AVERAGE(M40,M50,M53:M54)</f>
+        <v>0.98564495499999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1101</v>
       </c>
@@ -15684,7 +15801,7 @@
         <v>0.62882760000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>651566</v>
       </c>
@@ -15725,7 +15842,7 @@
         <v>0.66936236999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>234858</v>
       </c>
@@ -15766,7 +15883,7 @@
         <v>0.76513949999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>992869</v>
       </c>
@@ -15807,7 +15924,7 @@
         <v>0.81664720000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>200092</v>
       </c>
@@ -15848,7 +15965,7 @@
         <v>0.83198340000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>61565</v>
       </c>
@@ -15889,7 +16006,7 @@
         <v>0.86319995000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>358466</v>
       </c>
@@ -15930,7 +16047,7 @@
         <v>0.89960669999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>593664</v>
       </c>
@@ -15971,7 +16088,7 @@
         <v>0.93053330000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>74054</v>
       </c>
@@ -16012,7 +16129,7 @@
         <v>0.9331545</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>514133</v>
       </c>

--- a/Porovnani_18_04.xlsx
+++ b/Porovnani_18_04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiki\PycharmProjects\Colony_Count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC396826-8A2E-48B3-84C3-F0A27E778628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D8BB0C-F905-41BB-BCD1-D5150E6FC532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="6" xr2:uid="{48282F01-B452-4B76-B512-DF405AF65261}"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="7" xr2:uid="{48282F01-B452-4B76-B512-DF405AF65261}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="experimenty" sheetId="6" r:id="rId6"/>
     <sheet name="final" sheetId="7" r:id="rId7"/>
+    <sheet name="Statistics" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="258">
   <si>
     <t>model</t>
   </si>
@@ -792,6 +793,27 @@
   </si>
   <si>
     <t>68.40943687966862</t>
+  </si>
+  <si>
+    <t>104.59744974917659</t>
+  </si>
+  <si>
+    <t>115.68342497383614</t>
+  </si>
+  <si>
+    <t>106.24299976883795</t>
+  </si>
+  <si>
+    <t>104.2699790828761</t>
+  </si>
+  <si>
+    <t>78.63771844167341</t>
+  </si>
+  <si>
+    <t>46.93863089551457</t>
+  </si>
+  <si>
+    <t>175.13087974292222</t>
   </si>
 </sst>
 </file>
@@ -4103,7 +4125,7 @@
   <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="A49" sqref="A49:N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12460,8 +12482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFBBF65-E8F0-4DFF-BAD4-1EACAA5B4F0C}">
   <dimension ref="A2:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14337,8 +14359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4847E0A1-974A-4F3D-B06B-051DC59E5772}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="A1:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16422,4 +16444,4493 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96673B5-6B7A-4C61-AC0F-0642535074F9}">
+  <dimension ref="A1:AE91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" customWidth="1"/>
+    <col min="25" max="25" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2">
+        <v>1E-4</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2">
+        <v>1.3879763197619399</v>
+      </c>
+      <c r="N2">
+        <v>1.1781242999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.59619</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3">
+        <v>1E-4</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3">
+        <v>1.2871617102612001</v>
+      </c>
+      <c r="N3">
+        <v>1.1345314</v>
+      </c>
+      <c r="O3">
+        <v>0.60183869999999995</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>251</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4">
+        <v>1E-4</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4">
+        <v>1.3674430446699199</v>
+      </c>
+      <c r="N4">
+        <v>1.1693772</v>
+      </c>
+      <c r="O4">
+        <v>0.60261564999999995</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>252</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z4">
+        <v>0.95694330000000005</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC4">
+        <v>0.59619</v>
+      </c>
+      <c r="AE4">
+        <f>TTEST(Z4:Z9,AC4:AC9,2,1)</f>
+        <v>2.325533595944854E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5">
+        <v>1E-4</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5">
+        <v>1.41934999237384</v>
+      </c>
+      <c r="N5">
+        <v>1.1913651000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.60901530000000004</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>253</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC5">
+        <v>0.60261564999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6">
+        <v>1E-4</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6">
+        <v>1.73718523384784</v>
+      </c>
+      <c r="N6">
+        <v>1.3180232000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.62757503999999997</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC6">
+        <v>0.60901530000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7">
+        <v>1E-4</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7">
+        <v>1.38540468660785</v>
+      </c>
+      <c r="N7">
+        <v>1.1770324000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.62882760000000004</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>254</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z7">
+        <v>0.97282769999999996</v>
+      </c>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC7">
+        <v>0.62757503999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8">
+        <v>1E-4</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8">
+        <v>1.83303549789878</v>
+      </c>
+      <c r="N8">
+        <v>1.3538965000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.66936236999999998</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>240</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z8">
+        <v>1.1853804999999999</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC8">
+        <v>0.66936236999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9">
+        <v>1E-4</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9">
+        <v>2.2738811921547399</v>
+      </c>
+      <c r="N9">
+        <v>1.5079395</v>
+      </c>
+      <c r="O9">
+        <v>0.76513949999999997</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>241</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>2.7585017999999999</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC9">
+        <v>0.76513949999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10">
+        <v>1E-4</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10">
+        <v>2.05057453572311</v>
+      </c>
+      <c r="N10">
+        <v>1.4319824999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.81664720000000002</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11">
+        <v>1E-4</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11">
+        <v>1.9316071784397599</v>
+      </c>
+      <c r="N11">
+        <v>1.3898226</v>
+      </c>
+      <c r="O11">
+        <v>0.83198340000000004</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12">
+        <v>1E-4</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12">
+        <v>2.1707271215341502</v>
+      </c>
+      <c r="N12">
+        <v>1.4733387</v>
+      </c>
+      <c r="O12">
+        <v>0.86319995000000005</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13">
+        <v>1E-3</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13">
+        <v>2.42056698845151</v>
+      </c>
+      <c r="N13">
+        <v>1.5558168999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.89960669999999998</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>242</v>
+      </c>
+      <c r="X13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14">
+        <v>1E-3</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14">
+        <v>2.4780492260504201</v>
+      </c>
+      <c r="N14">
+        <v>1.5741824</v>
+      </c>
+      <c r="O14">
+        <v>0.93053330000000001</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>243</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z14">
+        <v>0.59619</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC14">
+        <v>0.76513949999999997</v>
+      </c>
+      <c r="AE14">
+        <f>TTEST(Z14:Z18,AC14:AC18,2,1)</f>
+        <v>4.1571241773669394E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15">
+        <v>1E-3</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15">
+        <v>2.6914715274949201</v>
+      </c>
+      <c r="N15">
+        <v>1.6405704999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.9331545</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>244</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z15">
+        <v>0.60261564999999995</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16">
+        <v>1E-4</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16">
+        <v>2.7794462715768602</v>
+      </c>
+      <c r="N16">
+        <v>1.6671667999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.95694330000000005</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>245</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z16">
+        <v>0.66936236999999998</v>
+      </c>
+      <c r="AA16">
+        <v>3</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC16">
+        <v>0.99294954999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17">
+        <v>1E-4</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17">
+        <v>2.88652546473724</v>
+      </c>
+      <c r="N17">
+        <v>1.6989776999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.97282769999999996</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>246</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z17">
+        <v>0.95694330000000005</v>
+      </c>
+      <c r="AA17">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>2.7585017999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>200</v>
+      </c>
+      <c r="E18" s="2">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2.8357181675074701</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1.6839591</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.98456675000000005</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z18">
+        <v>0.97282769999999996</v>
+      </c>
+      <c r="AA18">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>2.7585017999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19">
+        <v>1E-4</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19">
+        <v>3.5457077235640799</v>
+      </c>
+      <c r="N19">
+        <v>1.8830051000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.99294954999999996</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>247</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="AA19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>200</v>
+      </c>
+      <c r="E20" s="2">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2.3654031865298699</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1.537987</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1.0231726000000001</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>200</v>
+      </c>
+      <c r="E21" s="2">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="2">
+        <v>3.23489311216946</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1.7985808000000001</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1.0337512</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>200</v>
+      </c>
+      <c r="E22" s="2">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="2">
+        <v>3.3039736026788402</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1.8176831</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1.0925026</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>200</v>
+      </c>
+      <c r="E23" s="9">
+        <v>16</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="9">
+        <v>4.7130037354140999</v>
+      </c>
+      <c r="N23" s="9">
+        <v>2.1709450000000001</v>
+      </c>
+      <c r="O23" s="9">
+        <v>1.0948874</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24">
+        <v>1E-4</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24">
+        <v>4.5206549697938998</v>
+      </c>
+      <c r="N24">
+        <v>2.1261834999999998</v>
+      </c>
+      <c r="O24">
+        <v>1.1853804999999999</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>239</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="8">
+        <v>200</v>
+      </c>
+      <c r="E25" s="8">
+        <v>16</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="8">
+        <v>12.0776098909623</v>
+      </c>
+      <c r="N25" s="8">
+        <v>3.4752858</v>
+      </c>
+      <c r="O25" s="8">
+        <v>2.0544229000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D26" s="8">
+        <v>200</v>
+      </c>
+      <c r="E26" s="8">
+        <v>16</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="8">
+        <v>12.5050135403871</v>
+      </c>
+      <c r="N26" s="8">
+        <v>3.5362429999999998</v>
+      </c>
+      <c r="O26" s="8">
+        <v>2.056025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D27" s="8">
+        <v>200</v>
+      </c>
+      <c r="E27" s="8">
+        <v>16</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="8">
+        <v>13.4790519230506</v>
+      </c>
+      <c r="N27" s="8">
+        <v>3.6713830999999999</v>
+      </c>
+      <c r="O27" s="8">
+        <v>2.6102780000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D28" s="8">
+        <v>200</v>
+      </c>
+      <c r="E28" s="8">
+        <v>16</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N28" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O28" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D29" s="8">
+        <v>200</v>
+      </c>
+      <c r="E29" s="8">
+        <v>16</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N29" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O29" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D30" s="8">
+        <v>200</v>
+      </c>
+      <c r="E30" s="8">
+        <v>16</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N30" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O30" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D31" s="8">
+        <v>200</v>
+      </c>
+      <c r="E31" s="8">
+        <v>16</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N31" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O31" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D32" s="8">
+        <v>200</v>
+      </c>
+      <c r="E32" s="8">
+        <v>16</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J32" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N32" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O32" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="Q32">
+        <f>TTEST(Q50:Q74,S50:S74,2,1)</f>
+        <v>0.68776418760857383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D33" s="8">
+        <v>200</v>
+      </c>
+      <c r="E33" s="8">
+        <v>16</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J33" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N33" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O33" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D34" s="8">
+        <v>200</v>
+      </c>
+      <c r="E34" s="8">
+        <v>16</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M34" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N34" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O34" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D35" s="8">
+        <v>200</v>
+      </c>
+      <c r="E35" s="8">
+        <v>16</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N35" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O35" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D36" s="8">
+        <v>200</v>
+      </c>
+      <c r="E36" s="8">
+        <v>16</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N36" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O36" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D37" s="8">
+        <v>200</v>
+      </c>
+      <c r="E37" s="8">
+        <v>16</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" s="8">
+        <v>24.2587552701725</v>
+      </c>
+      <c r="N37" s="8">
+        <v>4.9253179999999999</v>
+      </c>
+      <c r="O37" s="8">
+        <v>3.0990696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D38" s="8">
+        <v>200</v>
+      </c>
+      <c r="E38" s="8">
+        <v>16</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M38" s="8">
+        <v>24.5922333580606</v>
+      </c>
+      <c r="N38" s="8">
+        <v>4.9590553999999996</v>
+      </c>
+      <c r="O38" s="8">
+        <v>3.2969062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D39" s="8">
+        <v>200</v>
+      </c>
+      <c r="E39" s="8">
+        <v>16</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="8">
+        <v>7.5533822871306304</v>
+      </c>
+      <c r="N39" s="8">
+        <v>2.7483412999999999</v>
+      </c>
+      <c r="O39" s="8">
+        <v>1.5609331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D40" s="8">
+        <v>200</v>
+      </c>
+      <c r="E40" s="8">
+        <v>16</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" s="8">
+        <v>29.4665209643323</v>
+      </c>
+      <c r="N40" s="8">
+        <v>5.4283066</v>
+      </c>
+      <c r="O40" s="8">
+        <v>2.4186453999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D41" s="8">
+        <v>200</v>
+      </c>
+      <c r="E41" s="8">
+        <v>16</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" s="8">
+        <v>29.821920955882302</v>
+      </c>
+      <c r="N41" s="8">
+        <v>5.4609449999999997</v>
+      </c>
+      <c r="O41" s="8">
+        <v>2.7585017999999999</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D42" s="8">
+        <v>200</v>
+      </c>
+      <c r="E42" s="8">
+        <v>16</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J42" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" s="8">
+        <v>29.821920955882302</v>
+      </c>
+      <c r="N42" s="8">
+        <v>5.4609449999999997</v>
+      </c>
+      <c r="O42" s="8">
+        <v>2.7585017999999999</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D43" s="8">
+        <v>200</v>
+      </c>
+      <c r="E43" s="8">
+        <v>16</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N43" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O43" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49">
+        <v>1E-4</v>
+      </c>
+      <c r="D49">
+        <v>200</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" t="s">
+        <v>46</v>
+      </c>
+      <c r="M49">
+        <v>2.05057453572311</v>
+      </c>
+      <c r="N49">
+        <v>1.4319824999999999</v>
+      </c>
+      <c r="O49">
+        <v>0.81664720000000002</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>51</v>
+      </c>
+      <c r="S49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50">
+        <v>1E-4</v>
+      </c>
+      <c r="D50">
+        <v>200</v>
+      </c>
+      <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" t="s">
+        <v>147</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>63</v>
+      </c>
+      <c r="L50" t="s">
+        <v>46</v>
+      </c>
+      <c r="M50">
+        <v>1.9316071784397599</v>
+      </c>
+      <c r="N50">
+        <v>1.3898226</v>
+      </c>
+      <c r="O50">
+        <v>0.83198340000000004</v>
+      </c>
+      <c r="Q50">
+        <v>0.59619</v>
+      </c>
+      <c r="S50">
+        <v>0.81664720000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51">
+        <v>1E-4</v>
+      </c>
+      <c r="D51">
+        <v>200</v>
+      </c>
+      <c r="E51">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>63</v>
+      </c>
+      <c r="L51" t="s">
+        <v>46</v>
+      </c>
+      <c r="M51">
+        <v>2.1707271215341502</v>
+      </c>
+      <c r="N51">
+        <v>1.4733387</v>
+      </c>
+      <c r="O51">
+        <v>0.86319995000000005</v>
+      </c>
+      <c r="Q51">
+        <v>0.60183869999999995</v>
+      </c>
+      <c r="S51">
+        <v>0.83198340000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52">
+        <v>1E-3</v>
+      </c>
+      <c r="D52">
+        <v>200</v>
+      </c>
+      <c r="E52">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" t="s">
+        <v>147</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>63</v>
+      </c>
+      <c r="L52" t="s">
+        <v>46</v>
+      </c>
+      <c r="M52">
+        <v>2.42056698845151</v>
+      </c>
+      <c r="N52">
+        <v>1.5558168999999999</v>
+      </c>
+      <c r="O52">
+        <v>0.89960669999999998</v>
+      </c>
+      <c r="Q52">
+        <v>0.60261564999999995</v>
+      </c>
+      <c r="S52">
+        <v>0.86319995000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53">
+        <v>1E-3</v>
+      </c>
+      <c r="D53">
+        <v>200</v>
+      </c>
+      <c r="E53">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" t="s">
+        <v>147</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>63</v>
+      </c>
+      <c r="L53" t="s">
+        <v>46</v>
+      </c>
+      <c r="M53">
+        <v>2.4780492260504201</v>
+      </c>
+      <c r="N53">
+        <v>1.5741824</v>
+      </c>
+      <c r="O53">
+        <v>0.93053330000000001</v>
+      </c>
+      <c r="Q53">
+        <v>0.60901530000000004</v>
+      </c>
+      <c r="S53">
+        <v>0.89960669999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54">
+        <v>1E-3</v>
+      </c>
+      <c r="D54">
+        <v>200</v>
+      </c>
+      <c r="E54">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>153</v>
+      </c>
+      <c r="I54" t="s">
+        <v>147</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>63</v>
+      </c>
+      <c r="L54" t="s">
+        <v>46</v>
+      </c>
+      <c r="M54">
+        <v>2.6914715274949201</v>
+      </c>
+      <c r="N54">
+        <v>1.6405704999999999</v>
+      </c>
+      <c r="O54">
+        <v>0.9331545</v>
+      </c>
+      <c r="Q54">
+        <v>0.62757503999999997</v>
+      </c>
+      <c r="S54">
+        <v>0.93053330000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55">
+        <v>1E-4</v>
+      </c>
+      <c r="D55">
+        <v>200</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" t="s">
+        <v>150</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>63</v>
+      </c>
+      <c r="L55" t="s">
+        <v>46</v>
+      </c>
+      <c r="M55">
+        <v>2.7794462715768602</v>
+      </c>
+      <c r="N55">
+        <v>1.6671667999999999</v>
+      </c>
+      <c r="O55">
+        <v>0.95694330000000005</v>
+      </c>
+      <c r="Q55">
+        <v>0.62882760000000004</v>
+      </c>
+      <c r="S55">
+        <v>0.9331545</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56">
+        <v>1E-4</v>
+      </c>
+      <c r="D56">
+        <v>200</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56" t="s">
+        <v>147</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>63</v>
+      </c>
+      <c r="L56" t="s">
+        <v>46</v>
+      </c>
+      <c r="M56">
+        <v>2.88652546473724</v>
+      </c>
+      <c r="N56">
+        <v>1.6989776999999999</v>
+      </c>
+      <c r="O56">
+        <v>0.97282769999999996</v>
+      </c>
+      <c r="Q56">
+        <v>0.66936236999999998</v>
+      </c>
+      <c r="S56">
+        <v>0.95694330000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>200</v>
+      </c>
+      <c r="E57" s="2">
+        <v>16</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M57" s="2">
+        <v>2.8357181675074701</v>
+      </c>
+      <c r="N57" s="2">
+        <v>1.6839591</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0.98456675000000005</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57">
+        <v>0.76513949999999997</v>
+      </c>
+      <c r="S57">
+        <v>0.97282769999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>200</v>
+      </c>
+      <c r="E58" s="2">
+        <v>16</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M58" s="2">
+        <v>2.3654031865298699</v>
+      </c>
+      <c r="N58" s="2">
+        <v>1.537987</v>
+      </c>
+      <c r="O58" s="2">
+        <v>1.0231726000000001</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58">
+        <v>0.99294954999999996</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0.98456675000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59">
+        <v>1E-4</v>
+      </c>
+      <c r="D59">
+        <v>200</v>
+      </c>
+      <c r="E59">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" t="s">
+        <v>150</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>63</v>
+      </c>
+      <c r="L59" t="s">
+        <v>46</v>
+      </c>
+      <c r="M59">
+        <v>3.23489311216946</v>
+      </c>
+      <c r="N59">
+        <v>1.7985808000000001</v>
+      </c>
+      <c r="O59">
+        <v>1.0337512</v>
+      </c>
+      <c r="Q59" s="9">
+        <v>1.0948874</v>
+      </c>
+      <c r="S59" s="2">
+        <v>1.0231726000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60">
+        <v>1E-4</v>
+      </c>
+      <c r="D60">
+        <v>200</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>146</v>
+      </c>
+      <c r="I60" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>63</v>
+      </c>
+      <c r="L60" t="s">
+        <v>46</v>
+      </c>
+      <c r="M60">
+        <v>3.3039736026788402</v>
+      </c>
+      <c r="N60">
+        <v>1.8176831</v>
+      </c>
+      <c r="O60">
+        <v>1.0925026</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="S60">
+        <v>1.0337512</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61">
+        <v>1E-4</v>
+      </c>
+      <c r="D61">
+        <v>200</v>
+      </c>
+      <c r="E61">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>153</v>
+      </c>
+      <c r="I61" t="s">
+        <v>154</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>63</v>
+      </c>
+      <c r="L61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M61">
+        <v>4.5206549697938998</v>
+      </c>
+      <c r="N61">
+        <v>2.1261834999999998</v>
+      </c>
+      <c r="O61">
+        <v>1.1853804999999999</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="S61">
+        <v>1.0925026</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B62" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D62" s="8">
+        <v>200</v>
+      </c>
+      <c r="E62" s="8">
+        <v>16</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J62" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M62" s="8">
+        <v>12.0776098909623</v>
+      </c>
+      <c r="N62" s="8">
+        <v>3.4752858</v>
+      </c>
+      <c r="O62" s="8">
+        <v>2.0544229000000001</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="S62">
+        <v>1.1853804999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B63" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D63" s="8">
+        <v>200</v>
+      </c>
+      <c r="E63" s="8">
+        <v>16</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J63" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M63" s="8">
+        <v>12.5050135403871</v>
+      </c>
+      <c r="N63" s="8">
+        <v>3.5362429999999998</v>
+      </c>
+      <c r="O63" s="8">
+        <v>2.056025</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="S63" s="8">
+        <v>2.0544229000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B64" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D64" s="8">
+        <v>200</v>
+      </c>
+      <c r="E64" s="8">
+        <v>16</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J64" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M64" s="8">
+        <v>13.4790519230506</v>
+      </c>
+      <c r="N64" s="8">
+        <v>3.6713830999999999</v>
+      </c>
+      <c r="O64" s="8">
+        <v>2.6102780000000001</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>3.0990696</v>
+      </c>
+      <c r="S64" s="8">
+        <v>2.056025</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B65" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D65" s="8">
+        <v>200</v>
+      </c>
+      <c r="E65" s="8">
+        <v>16</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J65" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M65" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N65" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O65" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>3.2969062</v>
+      </c>
+      <c r="S65" s="8">
+        <v>2.6102780000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B66" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D66" s="8">
+        <v>200</v>
+      </c>
+      <c r="E66" s="8">
+        <v>16</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J66" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M66" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N66" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O66" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="Q66" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="S66" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B67" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D67" s="8">
+        <v>200</v>
+      </c>
+      <c r="E67" s="8">
+        <v>16</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J67" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M67" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N67" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O67" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="Q67">
+        <f>AVERAGE(Q50:Q66)</f>
+        <v>1.6528467005882352</v>
+      </c>
+      <c r="S67" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B68" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D68" s="8">
+        <v>200</v>
+      </c>
+      <c r="E68" s="8">
+        <v>16</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J68" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M68" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N68" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O68" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="Q68">
+        <v>1.6528467005882352</v>
+      </c>
+      <c r="S68" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B69" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D69" s="8">
+        <v>200</v>
+      </c>
+      <c r="E69" s="8">
+        <v>16</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J69" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M69" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N69" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O69" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="Q69">
+        <v>1.6528467005882352</v>
+      </c>
+      <c r="S69" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B70" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D70" s="8">
+        <v>200</v>
+      </c>
+      <c r="E70" s="8">
+        <v>16</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J70" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M70" s="8">
+        <v>7.5533822871306304</v>
+      </c>
+      <c r="N70" s="8">
+        <v>2.7483412999999999</v>
+      </c>
+      <c r="O70" s="8">
+        <v>1.5609331</v>
+      </c>
+      <c r="Q70">
+        <v>1.6528467005882352</v>
+      </c>
+      <c r="S70" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B71" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D71" s="8">
+        <v>200</v>
+      </c>
+      <c r="E71" s="8">
+        <v>16</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J71" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M71" s="8">
+        <v>29.4665209643323</v>
+      </c>
+      <c r="N71" s="8">
+        <v>5.4283066</v>
+      </c>
+      <c r="O71" s="8">
+        <v>2.4186453999999999</v>
+      </c>
+      <c r="Q71">
+        <v>1.6528467005882352</v>
+      </c>
+      <c r="S71" s="8">
+        <v>1.5609331</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B72" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D72" s="8">
+        <v>200</v>
+      </c>
+      <c r="E72" s="8">
+        <v>16</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J72" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M72" s="8">
+        <v>29.821920955882302</v>
+      </c>
+      <c r="N72" s="8">
+        <v>5.4609449999999997</v>
+      </c>
+      <c r="O72" s="8">
+        <v>2.7585017999999999</v>
+      </c>
+      <c r="Q72">
+        <v>1.6528467005882352</v>
+      </c>
+      <c r="S72" s="8">
+        <v>2.4186453999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B73" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D73" s="8">
+        <v>200</v>
+      </c>
+      <c r="E73" s="8">
+        <v>16</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J73" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M73" s="8">
+        <v>29.821920955882302</v>
+      </c>
+      <c r="N73" s="8">
+        <v>5.4609449999999997</v>
+      </c>
+      <c r="O73" s="8">
+        <v>2.7585017999999999</v>
+      </c>
+      <c r="Q73">
+        <v>1.6528467005882352</v>
+      </c>
+      <c r="S73" s="8">
+        <v>2.7585017999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74">
+        <v>1E-4</v>
+      </c>
+      <c r="D74">
+        <v>200</v>
+      </c>
+      <c r="E74">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>146</v>
+      </c>
+      <c r="I74" t="s">
+        <v>150</v>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>63</v>
+      </c>
+      <c r="L74" t="s">
+        <v>51</v>
+      </c>
+      <c r="M74">
+        <v>1.3879763197619399</v>
+      </c>
+      <c r="N74">
+        <v>1.1781242999999999</v>
+      </c>
+      <c r="O74">
+        <v>0.59619</v>
+      </c>
+      <c r="Q74">
+        <v>1.6528467005882352</v>
+      </c>
+      <c r="S74" s="8">
+        <v>2.7585017999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75">
+        <v>1E-4</v>
+      </c>
+      <c r="D75">
+        <v>200</v>
+      </c>
+      <c r="E75">
+        <v>16</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>146</v>
+      </c>
+      <c r="I75" t="s">
+        <v>147</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>63</v>
+      </c>
+      <c r="L75" t="s">
+        <v>51</v>
+      </c>
+      <c r="M75">
+        <v>1.2871617102612001</v>
+      </c>
+      <c r="N75">
+        <v>1.1345314</v>
+      </c>
+      <c r="O75">
+        <v>0.60183869999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76">
+        <v>1E-4</v>
+      </c>
+      <c r="D76">
+        <v>200</v>
+      </c>
+      <c r="E76">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
+        <v>146</v>
+      </c>
+      <c r="I76" t="s">
+        <v>150</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>63</v>
+      </c>
+      <c r="L76" t="s">
+        <v>51</v>
+      </c>
+      <c r="M76">
+        <v>1.3674430446699199</v>
+      </c>
+      <c r="N76">
+        <v>1.1693772</v>
+      </c>
+      <c r="O76">
+        <v>0.60261564999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77">
+        <v>1E-4</v>
+      </c>
+      <c r="D77">
+        <v>200</v>
+      </c>
+      <c r="E77">
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" t="s">
+        <v>147</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>63</v>
+      </c>
+      <c r="L77" t="s">
+        <v>51</v>
+      </c>
+      <c r="M77">
+        <v>1.41934999237384</v>
+      </c>
+      <c r="N77">
+        <v>1.1913651000000001</v>
+      </c>
+      <c r="O77">
+        <v>0.60901530000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78">
+        <v>1E-4</v>
+      </c>
+      <c r="D78">
+        <v>200</v>
+      </c>
+      <c r="E78">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>146</v>
+      </c>
+      <c r="I78" t="s">
+        <v>147</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>63</v>
+      </c>
+      <c r="L78" t="s">
+        <v>51</v>
+      </c>
+      <c r="M78">
+        <v>1.73718523384784</v>
+      </c>
+      <c r="N78">
+        <v>1.3180232000000001</v>
+      </c>
+      <c r="O78">
+        <v>0.62757503999999997</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79">
+        <v>1E-4</v>
+      </c>
+      <c r="D79">
+        <v>200</v>
+      </c>
+      <c r="E79">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>146</v>
+      </c>
+      <c r="I79" t="s">
+        <v>150</v>
+      </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>63</v>
+      </c>
+      <c r="L79" t="s">
+        <v>51</v>
+      </c>
+      <c r="M79">
+        <v>1.38540468660785</v>
+      </c>
+      <c r="N79">
+        <v>1.1770324000000001</v>
+      </c>
+      <c r="O79">
+        <v>0.62882760000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80">
+        <v>1E-4</v>
+      </c>
+      <c r="D80">
+        <v>200</v>
+      </c>
+      <c r="E80">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>153</v>
+      </c>
+      <c r="I80" t="s">
+        <v>154</v>
+      </c>
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>63</v>
+      </c>
+      <c r="L80" t="s">
+        <v>51</v>
+      </c>
+      <c r="M80">
+        <v>1.83303549789878</v>
+      </c>
+      <c r="N80">
+        <v>1.3538965000000001</v>
+      </c>
+      <c r="O80">
+        <v>0.66936236999999998</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81">
+        <v>1E-4</v>
+      </c>
+      <c r="D81">
+        <v>200</v>
+      </c>
+      <c r="E81">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>45</v>
+      </c>
+      <c r="L81" t="s">
+        <v>51</v>
+      </c>
+      <c r="M81">
+        <v>2.2738811921547399</v>
+      </c>
+      <c r="N81">
+        <v>1.5079395</v>
+      </c>
+      <c r="O81">
+        <v>0.76513949999999997</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82">
+        <v>1E-4</v>
+      </c>
+      <c r="D82">
+        <v>200</v>
+      </c>
+      <c r="E82">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>153</v>
+      </c>
+      <c r="I82" t="s">
+        <v>154</v>
+      </c>
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>45</v>
+      </c>
+      <c r="L82" t="s">
+        <v>51</v>
+      </c>
+      <c r="M82">
+        <v>3.5457077235640799</v>
+      </c>
+      <c r="N82">
+        <v>1.8830051000000001</v>
+      </c>
+      <c r="O82">
+        <v>0.99294954999999996</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B83" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="D83" s="9">
+        <v>200</v>
+      </c>
+      <c r="E83" s="9">
+        <v>16</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J83" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M83" s="9">
+        <v>4.7130037354140999</v>
+      </c>
+      <c r="N83" s="9">
+        <v>2.1709450000000001</v>
+      </c>
+      <c r="O83" s="9">
+        <v>1.0948874</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B84" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D84" s="8">
+        <v>200</v>
+      </c>
+      <c r="E84" s="8">
+        <v>16</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J84" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M84" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N84" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O84" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B85" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D85" s="8">
+        <v>200</v>
+      </c>
+      <c r="E85" s="8">
+        <v>16</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J85" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M85" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N85" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O85" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B86" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D86" s="8">
+        <v>200</v>
+      </c>
+      <c r="E86" s="8">
+        <v>16</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J86" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M86" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N86" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O86" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B87" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D87" s="8">
+        <v>200</v>
+      </c>
+      <c r="E87" s="8">
+        <v>16</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J87" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M87" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N87" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O87" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B88" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D88" s="8">
+        <v>200</v>
+      </c>
+      <c r="E88" s="8">
+        <v>16</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J88" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M88" s="8">
+        <v>24.2587552701725</v>
+      </c>
+      <c r="N88" s="8">
+        <v>4.9253179999999999</v>
+      </c>
+      <c r="O88" s="8">
+        <v>3.0990696</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B89" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D89" s="8">
+        <v>200</v>
+      </c>
+      <c r="E89" s="8">
+        <v>16</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J89" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M89" s="8">
+        <v>24.5922333580606</v>
+      </c>
+      <c r="N89" s="8">
+        <v>4.9590553999999996</v>
+      </c>
+      <c r="O89" s="8">
+        <v>3.2969062</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B90" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D90" s="8">
+        <v>200</v>
+      </c>
+      <c r="E90" s="8">
+        <v>16</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J90" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M90" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="N90" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="O90" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" t="s">
+        <v>69</v>
+      </c>
+      <c r="K91" t="s">
+        <v>70</v>
+      </c>
+      <c r="L91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M91" t="s">
+        <v>97</v>
+      </c>
+      <c r="N91" t="s">
+        <v>98</v>
+      </c>
+      <c r="O91" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B49:Q91">
+    <sortCondition ref="L49:L91"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Porovnani_18_04.xlsx
+++ b/Porovnani_18_04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiki\PycharmProjects\Colony_Count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D8BB0C-F905-41BB-BCD1-D5150E6FC532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843F1A28-0BBD-4B13-B4E0-CA13734C2C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="7" xr2:uid="{48282F01-B452-4B76-B512-DF405AF65261}"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="8" xr2:uid="{48282F01-B452-4B76-B512-DF405AF65261}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="experimenty" sheetId="6" r:id="rId6"/>
     <sheet name="final" sheetId="7" r:id="rId7"/>
     <sheet name="Statistics" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="286">
   <si>
     <t>model</t>
   </si>
@@ -814,6 +815,90 @@
   </si>
   <si>
     <t>175.13087974292222</t>
+  </si>
+  <si>
+    <t>1.4756074371638106</t>
+  </si>
+  <si>
+    <t>1.2147461</t>
+  </si>
+  <si>
+    <t>0.6270971</t>
+  </si>
+  <si>
+    <t>1587479503.082104</t>
+  </si>
+  <si>
+    <t>3.615370576543843</t>
+  </si>
+  <si>
+    <t>1.9014128</t>
+  </si>
+  <si>
+    <t>0.96338135</t>
+  </si>
+  <si>
+    <t>1587481501.19047</t>
+  </si>
+  <si>
+    <t>1.7428631437942386</t>
+  </si>
+  <si>
+    <t>1.3201754</t>
+  </si>
+  <si>
+    <t>0.86494327</t>
+  </si>
+  <si>
+    <t>1587483580.287146</t>
+  </si>
+  <si>
+    <t>1.405695924151908</t>
+  </si>
+  <si>
+    <t>1.1856205</t>
+  </si>
+  <si>
+    <t>0.6444451</t>
+  </si>
+  <si>
+    <t>1587485747.230114</t>
+  </si>
+  <si>
+    <t>1.6148056127815782</t>
+  </si>
+  <si>
+    <t>1.2707498</t>
+  </si>
+  <si>
+    <t>0.6218784</t>
+  </si>
+  <si>
+    <t>1587487921.409922</t>
+  </si>
+  <si>
+    <t>2.86586062232142</t>
+  </si>
+  <si>
+    <t>1.6928854</t>
+  </si>
+  <si>
+    <t>0.8400398</t>
+  </si>
+  <si>
+    <t>1587490102.830583</t>
+  </si>
+  <si>
+    <t>2.927575878840049</t>
+  </si>
+  <si>
+    <t>1.711016</t>
+  </si>
+  <si>
+    <t>0.83050394</t>
+  </si>
+  <si>
+    <t>1587477302.770141</t>
   </si>
 </sst>
 </file>
@@ -14360,7 +14445,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="A1:P24"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16450,7 +16535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96673B5-6B7A-4C61-AC0F-0642535074F9}">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
+    <sheetView topLeftCell="N2" workbookViewId="0">
       <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
@@ -20933,4 +21018,381 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF094A3C-B941-43BB-B883-DAADC8898F48}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>262</v>
+      </c>
+      <c r="M3" t="s">
+        <v>263</v>
+      </c>
+      <c r="N3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" t="s">
+        <v>271</v>
+      </c>
+      <c r="N5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>274</v>
+      </c>
+      <c r="M6" t="s">
+        <v>275</v>
+      </c>
+      <c r="N6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M7" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M8" t="s">
+        <v>283</v>
+      </c>
+      <c r="N8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Porovnani_18_04.xlsx
+++ b/Porovnani_18_04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiki\PycharmProjects\Colony_Count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843F1A28-0BBD-4B13-B4E0-CA13734C2C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF67B9B7-569B-4A46-B67A-CDDF5A664E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="8" xr2:uid="{48282F01-B452-4B76-B512-DF405AF65261}"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="6" xr2:uid="{48282F01-B452-4B76-B512-DF405AF65261}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="297">
   <si>
     <t>model</t>
   </si>
@@ -899,6 +899,39 @@
   </si>
   <si>
     <t>1587477302.770141</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>16, 30, 40</t>
+  </si>
+  <si>
+    <t>6, 10, 16</t>
+  </si>
+  <si>
+    <t>10, 20, 30</t>
+  </si>
+  <si>
+    <t>Last two</t>
+  </si>
+  <si>
+    <t>Last one</t>
+  </si>
+  <si>
+    <t>No FC</t>
+  </si>
+  <si>
+    <t>dodany</t>
   </si>
 </sst>
 </file>
@@ -908,7 +941,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,8 +982,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -975,6 +1024,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -988,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -999,6 +1054,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4210,7 +4268,7 @@
   <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:N53"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7441,7 +7499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F79A515-9F14-46FE-948D-230DCF2184AB}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q119" sqref="Q119"/>
     </sheetView>
   </sheetViews>
@@ -12567,8 +12625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFBBF65-E8F0-4DFF-BAD4-1EACAA5B4F0C}">
   <dimension ref="A2:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:N45"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14442,10 +14500,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4847E0A1-974A-4F3D-B06B-051DC59E5772}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14459,7 +14517,7 @@
     <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14502,12 +14560,15 @@
       <c r="N1" t="s">
         <v>99</v>
       </c>
+      <c r="O1" t="s">
+        <v>230</v>
+      </c>
       <c r="P1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B2">
@@ -14549,12 +14610,21 @@
       <c r="N2">
         <v>0.59619</v>
       </c>
+      <c r="O2" t="s">
+        <v>287</v>
+      </c>
       <c r="P2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B3">
@@ -14596,9 +14666,18 @@
       <c r="N3">
         <v>0.60183869999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="O3" t="s">
+        <v>287</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>221</v>
       </c>
       <c r="B4">
@@ -14640,483 +14719,522 @@
       <c r="N4">
         <v>0.60261564999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="O4" t="s">
+        <v>287</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B5">
-        <v>1E-4</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>1.41934999237384</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>1.1913651000000001</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>0.60901530000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="O5" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.61480561278157</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.2707497999999999</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.62187840000000005</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.4756074371638099</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1.2147460999999999</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.62709709999999996</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B6">
-        <v>1E-4</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I6" t="b">
+      <c r="I8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L6">
+      <c r="L8" s="2">
         <v>1.73718523384784</v>
       </c>
-      <c r="M6">
+      <c r="M8" s="2">
         <v>1.3180232000000001</v>
       </c>
-      <c r="N6">
+      <c r="N8" s="2">
         <v>0.62757503999999997</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O8" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B7">
-        <v>1E-4</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>200</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="I9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L7">
+      <c r="L9" s="2">
         <v>1.38540468660785</v>
       </c>
-      <c r="M7">
+      <c r="M9" s="2">
         <v>1.1770324000000001</v>
       </c>
-      <c r="N7">
+      <c r="N9" s="2">
         <v>0.62882760000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="O9" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>200</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.4056959241519</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.1856205</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.64444509999999999</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>191</v>
       </c>
-      <c r="B8">
-        <v>1E-4</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B11">
+        <v>1E-4</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
         <v>153</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H11" t="s">
         <v>154</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" t="s">
         <v>51</v>
       </c>
-      <c r="L8">
+      <c r="L11">
         <v>1.83303549789878</v>
       </c>
-      <c r="M8">
+      <c r="M11">
         <v>1.3538965000000001</v>
       </c>
-      <c r="N8">
+      <c r="N11">
         <v>0.66936236999999998</v>
       </c>
-      <c r="P8" t="s">
+      <c r="O11" t="s">
+        <v>287</v>
+      </c>
+      <c r="P11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B9">
-        <v>1E-4</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="B12">
+        <v>1E-4</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
         <v>146</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H12" t="s">
         <v>150</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>45</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K12" t="s">
         <v>51</v>
       </c>
-      <c r="L9">
+      <c r="L12">
         <v>2.2738811921547399</v>
       </c>
-      <c r="M9">
+      <c r="M12">
         <v>1.5079395</v>
       </c>
-      <c r="N9">
+      <c r="N12">
         <v>0.76513949999999997</v>
       </c>
-      <c r="P9" t="s">
+      <c r="O12" t="s">
+        <v>287</v>
+      </c>
+      <c r="P12" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="S12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>181</v>
       </c>
-      <c r="B10">
-        <v>1E-4</v>
-      </c>
-      <c r="C10">
-        <v>200</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B13">
+        <v>1E-4</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G13" t="s">
         <v>156</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H13" t="s">
         <v>150</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13">
         <v>2.05057453572311</v>
       </c>
-      <c r="M10">
+      <c r="M13">
         <v>1.4319824999999999</v>
       </c>
-      <c r="N10">
+      <c r="N13">
         <v>0.81664720000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="O13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14">
+        <v>2.9275758788400399</v>
+      </c>
+      <c r="M14">
+        <v>1.7110160000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.83050394000000005</v>
+      </c>
+      <c r="O14" t="s">
+        <v>287</v>
+      </c>
+      <c r="S14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B11">
-        <v>1E-4</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B15">
+        <v>1E-4</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G15" t="s">
         <v>156</v>
-      </c>
-      <c r="H11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11">
-        <v>1.9316071784397599</v>
-      </c>
-      <c r="M11">
-        <v>1.3898226</v>
-      </c>
-      <c r="N11">
-        <v>0.83198340000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12">
-        <v>1E-4</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12">
-        <v>2.1707271215341502</v>
-      </c>
-      <c r="M12">
-        <v>1.4733387</v>
-      </c>
-      <c r="N12">
-        <v>0.86319995000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13">
-        <v>1E-3</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13">
-        <v>2.42056698845151</v>
-      </c>
-      <c r="M13">
-        <v>1.5558168999999999</v>
-      </c>
-      <c r="N13">
-        <v>0.89960669999999998</v>
-      </c>
-      <c r="P13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14">
-        <v>1E-3</v>
-      </c>
-      <c r="C14">
-        <v>200</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14">
-        <v>2.4780492260504201</v>
-      </c>
-      <c r="M14">
-        <v>1.5741824</v>
-      </c>
-      <c r="N14">
-        <v>0.93053330000000001</v>
-      </c>
-      <c r="P14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15">
-        <v>1E-3</v>
-      </c>
-      <c r="C15">
-        <v>200</v>
-      </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>153</v>
       </c>
       <c r="H15" t="s">
         <v>147</v>
@@ -15131,24 +15249,24 @@
         <v>46</v>
       </c>
       <c r="L15">
-        <v>2.6914715274949201</v>
+        <v>1.9316071784397599</v>
       </c>
       <c r="M15">
-        <v>1.6405704999999999</v>
+        <v>1.3898226</v>
       </c>
       <c r="N15">
-        <v>0.9331545</v>
-      </c>
-      <c r="P15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.83198340000000004</v>
+      </c>
+      <c r="O15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16">
-        <v>1E-4</v>
+        <v>277</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
       </c>
       <c r="C16">
         <v>200</v>
@@ -15160,39 +15278,42 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
         <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L16">
-        <v>2.7794462715768602</v>
+        <v>2.8658606223214198</v>
       </c>
       <c r="M16">
-        <v>1.6671667999999999</v>
+        <v>1.6928854</v>
       </c>
       <c r="N16">
-        <v>0.95694330000000005</v>
-      </c>
-      <c r="P16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>186</v>
+        <v>0.8400398</v>
+      </c>
+      <c r="O16" t="s">
+        <v>287</v>
+      </c>
+      <c r="S16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B17">
         <v>1E-4</v>
@@ -15207,10 +15328,10 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
         <v>147</v>
@@ -15225,71 +15346,74 @@
         <v>46</v>
       </c>
       <c r="L17">
-        <v>2.88652546473724</v>
+        <v>2.1707271215341502</v>
       </c>
       <c r="M17">
-        <v>1.6989776999999999</v>
+        <v>1.4733387</v>
       </c>
       <c r="N17">
-        <v>0.97282769999999996</v>
-      </c>
-      <c r="P17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>200</v>
-      </c>
-      <c r="D18" s="2">
-        <v>16</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="2" t="s">
+        <v>0.86319995000000005</v>
+      </c>
+      <c r="O17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>200</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="2">
-        <v>2.8357181675074701</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1.6839591</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.98456675000000005</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>187</v>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18">
+        <v>1.7428631437942299</v>
+      </c>
+      <c r="M18">
+        <v>1.3201754000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.86494327000000004</v>
+      </c>
+      <c r="O18" t="s">
+        <v>289</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B19">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C19">
         <v>200</v>
@@ -15298,113 +15422,119 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19">
+        <v>2.42056698845151</v>
+      </c>
+      <c r="M19">
+        <v>1.5558168999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.89960669999999998</v>
+      </c>
+      <c r="O19" t="s">
+        <v>289</v>
+      </c>
+      <c r="P19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20">
+        <v>1E-3</v>
+      </c>
+      <c r="C20">
+        <v>200</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20">
+        <v>2.4780492260504201</v>
+      </c>
+      <c r="M20">
+        <v>1.5741824</v>
+      </c>
+      <c r="N20">
+        <v>0.93053330000000001</v>
+      </c>
+      <c r="O20" t="s">
+        <v>289</v>
+      </c>
+      <c r="P20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21">
+        <v>1E-3</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
         <v>153</v>
       </c>
-      <c r="H19" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19">
-        <v>3.5457077235640799</v>
-      </c>
-      <c r="M19">
-        <v>1.8830051000000001</v>
-      </c>
-      <c r="N19">
-        <v>0.99294954999999996</v>
-      </c>
-      <c r="P19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>200</v>
-      </c>
-      <c r="D20" s="2">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="2">
-        <v>2.3654031865298699</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1.537987</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1.0231726000000001</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21">
-        <v>1E-4</v>
-      </c>
-      <c r="C21">
-        <v>200</v>
-      </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>146</v>
-      </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>63</v>
@@ -15413,21 +15543,24 @@
         <v>46</v>
       </c>
       <c r="L21">
-        <v>3.23489311216946</v>
+        <v>2.6914715274949201</v>
       </c>
       <c r="M21">
-        <v>1.7985808000000001</v>
+        <v>1.6405704999999999</v>
       </c>
       <c r="N21">
-        <v>1.0337512</v>
+        <v>0.9331545</v>
+      </c>
+      <c r="O21" t="s">
+        <v>289</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B22">
         <v>1E-4</v>
@@ -15460,539 +15593,498 @@
         <v>46</v>
       </c>
       <c r="L22">
+        <v>2.7794462715768602</v>
+      </c>
+      <c r="M22">
+        <v>1.6671667999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.95694330000000005</v>
+      </c>
+      <c r="O22" t="s">
+        <v>286</v>
+      </c>
+      <c r="P22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23">
+        <v>3.6153705765438402</v>
+      </c>
+      <c r="M23">
+        <v>1.9014127999999999</v>
+      </c>
+      <c r="N23">
+        <v>0.96338135000000003</v>
+      </c>
+      <c r="O23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24">
+        <v>1E-4</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24">
+        <v>2.88652546473724</v>
+      </c>
+      <c r="M24">
+        <v>1.6989776999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.97282769999999996</v>
+      </c>
+      <c r="O24" t="s">
+        <v>289</v>
+      </c>
+      <c r="P24" t="s">
+        <v>246</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25">
+        <v>1E-4</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25">
+        <v>3.5457077235640799</v>
+      </c>
+      <c r="M25">
+        <v>1.8830051000000001</v>
+      </c>
+      <c r="N25">
+        <v>0.99294954999999996</v>
+      </c>
+      <c r="O25" t="s">
+        <v>287</v>
+      </c>
+      <c r="P25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>200</v>
+      </c>
+      <c r="D26" s="8">
+        <v>16</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="8">
+        <v>3.23489311216946</v>
+      </c>
+      <c r="M26" s="8">
+        <v>1.7985808000000001</v>
+      </c>
+      <c r="N26" s="8">
+        <v>1.0337512</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>200</v>
+      </c>
+      <c r="D27" s="8">
+        <v>16</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="8">
         <v>3.3039736026788402</v>
       </c>
-      <c r="M22">
+      <c r="M27" s="8">
         <v>1.8176831</v>
       </c>
-      <c r="N22">
+      <c r="N27" s="8">
         <v>1.0925026</v>
       </c>
-      <c r="P22" t="s">
+      <c r="O27" s="8"/>
+      <c r="P27" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B28" s="8">
         <v>1E-3</v>
       </c>
-      <c r="C23" s="9">
-        <v>200</v>
-      </c>
-      <c r="D23" s="9">
-        <v>16</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="C28" s="8">
+        <v>200</v>
+      </c>
+      <c r="D28" s="8">
+        <v>16</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="I28" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L28" s="8">
         <v>4.7130037354140999</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M28" s="8">
         <v>2.1709450000000001</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N28" s="8">
         <v>1.0948874</v>
       </c>
-      <c r="P23" t="s">
+      <c r="O28" s="8"/>
+      <c r="P28" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B24">
-        <v>1E-4</v>
-      </c>
-      <c r="C24">
-        <v>200</v>
-      </c>
-      <c r="D24">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="B29" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="C29" s="8">
+        <v>200</v>
+      </c>
+      <c r="D29" s="8">
+        <v>16</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H29" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24">
+      <c r="I29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="8">
         <v>4.5206549697938998</v>
       </c>
-      <c r="M24">
+      <c r="M29" s="8">
         <v>2.1261834999999998</v>
       </c>
-      <c r="N24">
+      <c r="N29" s="8">
         <v>1.1853804999999999</v>
       </c>
-      <c r="P24" t="s">
+      <c r="O29" s="8"/>
+      <c r="P29" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J26" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="C30" s="8">
+        <v>200</v>
+      </c>
+      <c r="D30" s="8">
+        <v>16</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="8">
+        <v>34.627527573529399</v>
+      </c>
+      <c r="M30" s="8">
+        <v>5.8845162000000002</v>
+      </c>
+      <c r="N30" s="8">
+        <v>2.9028033999999998</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
         <v>51</v>
       </c>
-      <c r="K26">
-        <f>COUNTIF(K2:K24,"mean")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="K34">
+        <f>COUNTIF(K3:K24,"mean")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>229</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E35" t="s">
         <v>228</v>
       </c>
-      <c r="J27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27">
-        <f>COUNTIF(K2:K24,"max")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <f>AVERAGE(N2:N9,N19,N23)</f>
-        <v>0.718840111</v>
-      </c>
-      <c r="E28">
-        <f>AVERAGE(N10:N17,N21:N22,N24)</f>
-        <v>0.95604821363636361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <f>COUNTIF(K3:K24,"max")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f>AVERAGE(N3:N10,N20,N24)</f>
+        <v>0.68666538900000007</v>
+      </c>
+      <c r="E36" t="e">
+        <f>AVERAGE(N11:N18,N22:N23,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>0</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D41" t="s">
         <v>3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E41" t="s">
         <v>4</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F41" t="s">
         <v>5</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G41" t="s">
         <v>6</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H41" t="s">
         <v>7</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I41" t="s">
         <v>69</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J41" t="s">
         <v>70</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K41" t="s">
         <v>230</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L41" t="s">
         <v>98</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M41" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>945057</v>
-      </c>
-      <c r="B34">
-        <v>1E-4</v>
-      </c>
-      <c r="C34">
-        <v>200</v>
-      </c>
-      <c r="D34">
-        <v>16</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>146</v>
-      </c>
-      <c r="H34" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>233</v>
-      </c>
-      <c r="K34" t="s">
-        <v>231</v>
-      </c>
-      <c r="L34">
-        <v>1.1781242999999999</v>
-      </c>
-      <c r="M34">
-        <v>0.59619</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="P41" t="s">
         <v>234</v>
       </c>
-      <c r="Q34">
-        <f>AVERAGE(M35,M37,M38,M43,M44,M45:M47,M49)</f>
+      <c r="Q41">
+        <f>AVERAGE(M43,M45,M46,M51,M52,M53:M55,M57)</f>
         <v>0.80774828777777774</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>354309</v>
-      </c>
-      <c r="B35">
-        <v>1E-4</v>
-      </c>
-      <c r="C35">
-        <v>200</v>
-      </c>
-      <c r="D35">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>146</v>
-      </c>
-      <c r="H35" t="s">
-        <v>147</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L35">
-        <v>1.1345314</v>
-      </c>
-      <c r="M35">
-        <v>0.60183869999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>77893</v>
-      </c>
-      <c r="B36">
-        <v>1E-4</v>
-      </c>
-      <c r="C36">
-        <v>200</v>
-      </c>
-      <c r="D36">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" t="s">
-        <v>150</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>233</v>
-      </c>
-      <c r="K36" t="s">
-        <v>231</v>
-      </c>
-      <c r="L36">
-        <v>1.1693772</v>
-      </c>
-      <c r="M36">
-        <v>0.60261564999999995</v>
-      </c>
-      <c r="P36" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q36">
-        <f>AVERAGE(M34,M36,M39,M41:M42,M48,M51:M52)</f>
-        <v>0.81157713124999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>631621</v>
-      </c>
-      <c r="B37">
-        <v>1E-4</v>
-      </c>
-      <c r="C37">
-        <v>200</v>
-      </c>
-      <c r="D37">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" t="s">
-        <v>147</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>233</v>
-      </c>
-      <c r="K37" t="s">
-        <v>231</v>
-      </c>
-      <c r="L37">
-        <v>1.1913651000000001</v>
-      </c>
-      <c r="M37">
-        <v>0.60901530000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>497613</v>
-      </c>
-      <c r="B38">
-        <v>1E-4</v>
-      </c>
-      <c r="C38">
-        <v>200</v>
-      </c>
-      <c r="D38">
-        <v>16</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" t="s">
-        <v>147</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>233</v>
-      </c>
-      <c r="K38" t="s">
-        <v>231</v>
-      </c>
-      <c r="L38">
-        <v>1.3180232000000001</v>
-      </c>
-      <c r="M38">
-        <v>0.62757503999999997</v>
-      </c>
-      <c r="P38" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q38">
-        <f>AVERAGE(M40,M50,M53:M54)</f>
-        <v>0.98564495499999993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1101</v>
-      </c>
-      <c r="B39">
-        <v>1E-4</v>
-      </c>
-      <c r="C39">
-        <v>200</v>
-      </c>
-      <c r="D39">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>233</v>
-      </c>
-      <c r="K39" t="s">
-        <v>231</v>
-      </c>
-      <c r="L39">
-        <v>1.1770324000000001</v>
-      </c>
-      <c r="M39">
-        <v>0.62882760000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>651566</v>
-      </c>
-      <c r="B40">
-        <v>1E-4</v>
-      </c>
-      <c r="C40">
-        <v>200</v>
-      </c>
-      <c r="D40">
-        <v>16</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
-        <v>153</v>
-      </c>
-      <c r="H40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>233</v>
-      </c>
-      <c r="K40" t="s">
-        <v>231</v>
-      </c>
-      <c r="L40">
-        <v>1.3538965000000001</v>
-      </c>
-      <c r="M40">
-        <v>0.66936236999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>234858</v>
-      </c>
-      <c r="B41">
-        <v>1E-4</v>
-      </c>
-      <c r="C41">
-        <v>200</v>
-      </c>
-      <c r="D41">
-        <v>16</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>146</v>
-      </c>
-      <c r="H41" t="s">
-        <v>150</v>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41" t="s">
-        <v>231</v>
-      </c>
-      <c r="L41">
-        <v>1.5079395</v>
-      </c>
-      <c r="M41">
-        <v>0.76513949999999997</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>992869</v>
+        <v>945057</v>
       </c>
       <c r="B42">
         <v>1E-4</v>
@@ -16007,10 +16099,10 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H42" t="s">
         <v>150</v>
@@ -16022,18 +16114,18 @@
         <v>233</v>
       </c>
       <c r="K42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L42">
-        <v>1.4319824999999999</v>
+        <v>1.1781242999999999</v>
       </c>
       <c r="M42">
-        <v>0.81664720000000002</v>
+        <v>0.59619</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>200092</v>
+        <v>354309</v>
       </c>
       <c r="B43">
         <v>1E-4</v>
@@ -16051,7 +16143,7 @@
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H43" t="s">
         <v>147</v>
@@ -16063,18 +16155,25 @@
         <v>233</v>
       </c>
       <c r="K43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L43">
-        <v>1.3898226</v>
+        <v>1.1345314</v>
       </c>
       <c r="M43">
-        <v>0.83198340000000004</v>
+        <v>0.60183869999999995</v>
+      </c>
+      <c r="P43" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q43">
+        <f>AVERAGE(M42,M44,M47,M49:M50,M56,M59:M60)</f>
+        <v>0.81157713124999997</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>61565</v>
+        <v>77893</v>
       </c>
       <c r="B44">
         <v>1E-4</v>
@@ -16089,36 +16188,36 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H44" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>233</v>
       </c>
       <c r="K44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L44">
-        <v>1.4733387</v>
+        <v>1.1693772</v>
       </c>
       <c r="M44">
-        <v>0.86319995000000005</v>
+        <v>0.60261564999999995</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>358466</v>
+        <v>631621</v>
       </c>
       <c r="B45">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C45">
         <v>200</v>
@@ -16127,10 +16226,10 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
         <v>146</v>
@@ -16145,21 +16244,28 @@
         <v>233</v>
       </c>
       <c r="K45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L45">
-        <v>1.5558168999999999</v>
+        <v>1.1913651000000001</v>
       </c>
       <c r="M45">
-        <v>0.89960669999999998</v>
+        <v>0.60901530000000004</v>
+      </c>
+      <c r="P45" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q45">
+        <f>AVERAGE(M48,M58,M61:M62)</f>
+        <v>0.98564495499999993</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>593664</v>
+        <v>497613</v>
       </c>
       <c r="B46">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C46">
         <v>200</v>
@@ -16168,13 +16274,13 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H46" t="s">
         <v>147</v>
@@ -16186,21 +16292,21 @@
         <v>233</v>
       </c>
       <c r="K46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L46">
-        <v>1.5741824</v>
+        <v>1.3180232000000001</v>
       </c>
       <c r="M46">
-        <v>0.93053330000000001</v>
+        <v>0.62757503999999997</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>74054</v>
+        <v>1101</v>
       </c>
       <c r="B47">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C47">
         <v>200</v>
@@ -16209,36 +16315,36 @@
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H47" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>233</v>
       </c>
       <c r="K47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L47">
-        <v>1.6405704999999999</v>
+        <v>1.1770324000000001</v>
       </c>
       <c r="M47">
-        <v>0.9331545</v>
+        <v>0.62882760000000004</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>514133</v>
+        <v>651566</v>
       </c>
       <c r="B48">
         <v>1E-4</v>
@@ -16256,10 +16362,10 @@
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H48" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -16268,18 +16374,18 @@
         <v>233</v>
       </c>
       <c r="K48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L48">
-        <v>1.6671667999999999</v>
+        <v>1.3538965000000001</v>
       </c>
       <c r="M48">
-        <v>0.95694330000000005</v>
+        <v>0.66936236999999998</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>52218</v>
+        <v>234858</v>
       </c>
       <c r="B49">
         <v>1E-4</v>
@@ -16300,27 +16406,27 @@
         <v>146</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="K49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L49">
-        <v>1.6989776999999999</v>
+        <v>1.5079395</v>
       </c>
       <c r="M49">
-        <v>0.97282769999999996</v>
+        <v>0.76513949999999997</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>497158</v>
+        <v>992869</v>
       </c>
       <c r="B50">
         <v>1E-4</v>
@@ -16335,33 +16441,33 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="K50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L50">
-        <v>1.8830051000000001</v>
+        <v>1.4319824999999999</v>
       </c>
       <c r="M50">
-        <v>0.99294954999999996</v>
+        <v>0.81664720000000002</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>160584</v>
+        <v>200092</v>
       </c>
       <c r="B51">
         <v>1E-4</v>
@@ -16376,16 +16482,16 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>233</v>
@@ -16394,15 +16500,15 @@
         <v>232</v>
       </c>
       <c r="L51">
-        <v>1.7985808000000001</v>
+        <v>1.3898226</v>
       </c>
       <c r="M51">
-        <v>1.0337512</v>
+        <v>0.83198340000000004</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>780628</v>
+        <v>61565</v>
       </c>
       <c r="B52">
         <v>1E-4</v>
@@ -16417,16 +16523,16 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>233</v>
@@ -16435,59 +16541,59 @@
         <v>232</v>
       </c>
       <c r="L52">
-        <v>1.8176831</v>
+        <v>1.4733387</v>
       </c>
       <c r="M52">
-        <v>1.0925026</v>
+        <v>0.86319995000000005</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
-        <v>925988</v>
-      </c>
-      <c r="B53" s="9">
+      <c r="A53">
+        <v>358466</v>
+      </c>
+      <c r="B53">
         <v>1E-3</v>
       </c>
-      <c r="C53" s="9">
-        <v>200</v>
-      </c>
-      <c r="D53" s="9">
-        <v>16</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I53" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="L53" s="9">
-        <v>2.1709450000000001</v>
-      </c>
-      <c r="M53" s="9">
-        <v>1.0948874</v>
+      <c r="C53">
+        <v>200</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>146</v>
+      </c>
+      <c r="H53" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>233</v>
+      </c>
+      <c r="K53" t="s">
+        <v>232</v>
+      </c>
+      <c r="L53">
+        <v>1.5558168999999999</v>
+      </c>
+      <c r="M53">
+        <v>0.89960669999999998</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>176613</v>
+        <v>593664</v>
       </c>
       <c r="B54">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C54">
         <v>200</v>
@@ -16496,19 +16602,19 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H54" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>233</v>
@@ -16517,17 +16623,346 @@
         <v>232</v>
       </c>
       <c r="L54">
+        <v>1.5741824</v>
+      </c>
+      <c r="M54">
+        <v>0.93053330000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>74054</v>
+      </c>
+      <c r="B55">
+        <v>1E-3</v>
+      </c>
+      <c r="C55">
+        <v>200</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>153</v>
+      </c>
+      <c r="H55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>233</v>
+      </c>
+      <c r="K55" t="s">
+        <v>232</v>
+      </c>
+      <c r="L55">
+        <v>1.6405704999999999</v>
+      </c>
+      <c r="M55">
+        <v>0.9331545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>514133</v>
+      </c>
+      <c r="B56">
+        <v>1E-4</v>
+      </c>
+      <c r="C56">
+        <v>200</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" t="s">
+        <v>150</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>233</v>
+      </c>
+      <c r="K56" t="s">
+        <v>232</v>
+      </c>
+      <c r="L56">
+        <v>1.6671667999999999</v>
+      </c>
+      <c r="M56">
+        <v>0.95694330000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>52218</v>
+      </c>
+      <c r="B57">
+        <v>1E-4</v>
+      </c>
+      <c r="C57">
+        <v>200</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" t="s">
+        <v>147</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>233</v>
+      </c>
+      <c r="K57" t="s">
+        <v>232</v>
+      </c>
+      <c r="L57">
+        <v>1.6989776999999999</v>
+      </c>
+      <c r="M57">
+        <v>0.97282769999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>497158</v>
+      </c>
+      <c r="B58">
+        <v>1E-4</v>
+      </c>
+      <c r="C58">
+        <v>200</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>153</v>
+      </c>
+      <c r="H58" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58" t="s">
+        <v>231</v>
+      </c>
+      <c r="L58">
+        <v>1.8830051000000001</v>
+      </c>
+      <c r="M58">
+        <v>0.99294954999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>160584</v>
+      </c>
+      <c r="B59">
+        <v>1E-4</v>
+      </c>
+      <c r="C59">
+        <v>200</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>233</v>
+      </c>
+      <c r="K59" t="s">
+        <v>232</v>
+      </c>
+      <c r="L59">
+        <v>1.7985808000000001</v>
+      </c>
+      <c r="M59">
+        <v>1.0337512</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>780628</v>
+      </c>
+      <c r="B60">
+        <v>1E-4</v>
+      </c>
+      <c r="C60">
+        <v>200</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>233</v>
+      </c>
+      <c r="K60" t="s">
+        <v>232</v>
+      </c>
+      <c r="L60">
+        <v>1.8176831</v>
+      </c>
+      <c r="M60">
+        <v>1.0925026</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>925988</v>
+      </c>
+      <c r="B61" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="C61" s="9">
+        <v>200</v>
+      </c>
+      <c r="D61" s="9">
+        <v>16</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="L61" s="9">
+        <v>2.1709450000000001</v>
+      </c>
+      <c r="M61" s="9">
+        <v>1.0948874</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>176613</v>
+      </c>
+      <c r="B62">
+        <v>1E-4</v>
+      </c>
+      <c r="C62">
+        <v>200</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>153</v>
+      </c>
+      <c r="H62" t="s">
+        <v>154</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>233</v>
+      </c>
+      <c r="K62" t="s">
+        <v>232</v>
+      </c>
+      <c r="L62">
         <v>2.1261834999999998</v>
       </c>
-      <c r="M54">
+      <c r="M62">
         <v>1.1853804999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M24">
-    <sortCondition ref="M2:M24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P29">
+    <sortCondition ref="N2:N29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16535,7 +16970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96673B5-6B7A-4C61-AC0F-0642535074F9}">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView topLeftCell="N2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
@@ -21022,16 +21457,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF094A3C-B941-43BB-B883-DAADC8898F48}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" activeCellId="1" sqref="A14:XFD14 A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.77734375" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
@@ -21392,6 +21828,887 @@
         <v>284</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>945057</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14" t="s">
+        <v>288</v>
+      </c>
+      <c r="I14">
+        <v>1.1781242999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.59619</v>
+      </c>
+      <c r="K14" t="s">
+        <v>287</v>
+      </c>
+      <c r="M14" t="s">
+        <v>289</v>
+      </c>
+      <c r="N14">
+        <f>AVERAGE(J27,J29:J33,J36)</f>
+        <v>0.89946411714285712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>354309</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>290</v>
+      </c>
+      <c r="G15" t="s">
+        <v>295</v>
+      </c>
+      <c r="H15" t="s">
+        <v>288</v>
+      </c>
+      <c r="I15">
+        <v>1.1345314</v>
+      </c>
+      <c r="J15">
+        <v>0.60183869999999995</v>
+      </c>
+      <c r="K15" t="s">
+        <v>287</v>
+      </c>
+      <c r="M15" t="s">
+        <v>286</v>
+      </c>
+      <c r="N15">
+        <f>AVERAGE(J25,J34)</f>
+        <v>0.88679525000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>77893</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" t="s">
+        <v>288</v>
+      </c>
+      <c r="I16">
+        <v>1.1693772</v>
+      </c>
+      <c r="J16">
+        <v>0.60261564999999995</v>
+      </c>
+      <c r="K16" t="s">
+        <v>287</v>
+      </c>
+      <c r="M16" t="s">
+        <v>287</v>
+      </c>
+      <c r="N16">
+        <f>AVERAGE(J14:J16,J23:J24,J26,J28,J35,J37)</f>
+        <v>0.76244676222222219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>631621</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.1913651000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.60901530000000004</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>230114</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.2707497999999999</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.62187840000000005</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>770141</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.2147460999999999</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.62709709999999996</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>497613</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.3180232000000001</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.62757503999999997</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.1770324000000001</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.62882760000000004</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>287146</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.1856205</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.64444509999999999</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>651566</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" t="s">
+        <v>295</v>
+      </c>
+      <c r="H23" t="s">
+        <v>288</v>
+      </c>
+      <c r="I23">
+        <v>1.3538965000000001</v>
+      </c>
+      <c r="J23">
+        <v>0.66936236999999998</v>
+      </c>
+      <c r="K23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>234858</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>288</v>
+      </c>
+      <c r="I24">
+        <v>1.5079395</v>
+      </c>
+      <c r="J24">
+        <v>0.76513949999999997</v>
+      </c>
+      <c r="K24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>992869</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" t="s">
+        <v>293</v>
+      </c>
+      <c r="G25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I25">
+        <v>1.4319824999999999</v>
+      </c>
+      <c r="J25">
+        <v>0.81664720000000002</v>
+      </c>
+      <c r="K25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>830583</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>288</v>
+      </c>
+      <c r="I26">
+        <v>1.7110160000000001</v>
+      </c>
+      <c r="J26">
+        <v>0.83050394000000005</v>
+      </c>
+      <c r="K26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>200092</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F27" t="s">
+        <v>294</v>
+      </c>
+      <c r="G27" t="s">
+        <v>295</v>
+      </c>
+      <c r="H27" t="s">
+        <v>232</v>
+      </c>
+      <c r="I27">
+        <v>1.3898226</v>
+      </c>
+      <c r="J27">
+        <v>0.83198340000000004</v>
+      </c>
+      <c r="K27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>409922</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>290</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>288</v>
+      </c>
+      <c r="I28">
+        <v>1.6928854</v>
+      </c>
+      <c r="J28">
+        <v>0.8400398</v>
+      </c>
+      <c r="K28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>61565</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" t="s">
+        <v>294</v>
+      </c>
+      <c r="G29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H29" t="s">
+        <v>232</v>
+      </c>
+      <c r="I29">
+        <v>1.4733387</v>
+      </c>
+      <c r="J29">
+        <v>0.86319995000000005</v>
+      </c>
+      <c r="K29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>19047</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>290</v>
+      </c>
+      <c r="F30" t="s">
+        <v>294</v>
+      </c>
+      <c r="G30" t="s">
+        <v>295</v>
+      </c>
+      <c r="H30" t="s">
+        <v>232</v>
+      </c>
+      <c r="I30">
+        <v>1.3201754000000001</v>
+      </c>
+      <c r="J30">
+        <v>0.86494327000000004</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>358466</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>290</v>
+      </c>
+      <c r="F31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" t="s">
+        <v>295</v>
+      </c>
+      <c r="H31" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31">
+        <v>1.5558168999999999</v>
+      </c>
+      <c r="J31">
+        <v>0.89960669999999998</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>593664</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>295</v>
+      </c>
+      <c r="H32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32">
+        <v>1.5741824</v>
+      </c>
+      <c r="J32">
+        <v>0.93053330000000001</v>
+      </c>
+      <c r="K32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>74054</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" t="s">
+        <v>295</v>
+      </c>
+      <c r="H33" t="s">
+        <v>232</v>
+      </c>
+      <c r="I33">
+        <v>1.6405704999999999</v>
+      </c>
+      <c r="J33">
+        <v>0.9331545</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>514133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>290</v>
+      </c>
+      <c r="F34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" t="s">
+        <v>231</v>
+      </c>
+      <c r="I34">
+        <v>1.6671667999999999</v>
+      </c>
+      <c r="J34">
+        <v>0.95694330000000005</v>
+      </c>
+      <c r="K34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>82104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>288</v>
+      </c>
+      <c r="I35">
+        <v>1.9014127999999999</v>
+      </c>
+      <c r="J35">
+        <v>0.96338135000000003</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>52218</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>290</v>
+      </c>
+      <c r="F36" t="s">
+        <v>294</v>
+      </c>
+      <c r="G36" t="s">
+        <v>295</v>
+      </c>
+      <c r="H36" t="s">
+        <v>232</v>
+      </c>
+      <c r="I36">
+        <v>1.6989776999999999</v>
+      </c>
+      <c r="J36">
+        <v>0.97282769999999996</v>
+      </c>
+      <c r="K36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>497158</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>288</v>
+      </c>
+      <c r="I37">
+        <v>1.8830051000000001</v>
+      </c>
+      <c r="J37">
+        <v>0.99294954999999996</v>
+      </c>
+      <c r="K37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>288</v>
+      </c>
+      <c r="H39">
+        <f>COUNTIF(H14:H37,"C")</f>
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>231</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
